--- a/data/pca/factorExposure/factorExposure_2017-11-20.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-11-20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.02566008923755</v>
+        <v>-0.01440182215170235</v>
       </c>
       <c r="C2">
-        <v>-0.0003427823929622524</v>
+        <v>0.03811061066934243</v>
       </c>
       <c r="D2">
-        <v>-0.005464179543731721</v>
+        <v>-0.02829255983633628</v>
       </c>
       <c r="E2">
-        <v>-0.01580096112088511</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.02779602970409813</v>
+      </c>
+      <c r="F2">
+        <v>-0.03327747740282981</v>
+      </c>
+      <c r="G2">
+        <v>-0.01361390755444743</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.01207072479954285</v>
+        <v>-0.05472489111223205</v>
       </c>
       <c r="C3">
-        <v>0.04651874590289506</v>
+        <v>0.07791653667401906</v>
       </c>
       <c r="D3">
-        <v>0.008368546279288397</v>
+        <v>-0.01457152326498062</v>
       </c>
       <c r="E3">
-        <v>0.03727187434208003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-0.08268147928387573</v>
+      </c>
+      <c r="F3">
+        <v>-0.06126397986358227</v>
+      </c>
+      <c r="G3">
+        <v>-0.07587685686330499</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.0235633629688231</v>
+        <v>-0.05622223711265355</v>
       </c>
       <c r="C4">
-        <v>0.03186755881261442</v>
+        <v>0.0635946936111393</v>
       </c>
       <c r="D4">
-        <v>-0.03988617394866673</v>
+        <v>-0.02206249033808984</v>
       </c>
       <c r="E4">
-        <v>-0.03343293521309894</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.0003005974831711988</v>
+      </c>
+      <c r="F4">
+        <v>-0.01622258443146354</v>
+      </c>
+      <c r="G4">
+        <v>-0.04069310352906413</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01553744140441488</v>
+        <v>-0.03205035287745951</v>
       </c>
       <c r="C6">
-        <v>0.0515384541082907</v>
+        <v>0.05419269611948931</v>
       </c>
       <c r="D6">
-        <v>-0.03614705130326846</v>
+        <v>-0.01628023322631499</v>
       </c>
       <c r="E6">
-        <v>-0.05060258916588178</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.005988709658293661</v>
+      </c>
+      <c r="F6">
+        <v>-0.02039962505069409</v>
+      </c>
+      <c r="G6">
+        <v>-0.02388415568976297</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.01257681629649085</v>
+        <v>-0.0197405219539702</v>
       </c>
       <c r="C7">
-        <v>0.02126157164005913</v>
+        <v>0.03724502176469884</v>
       </c>
       <c r="D7">
-        <v>-0.06190761485529265</v>
+        <v>-0.01249578989432378</v>
       </c>
       <c r="E7">
-        <v>0.03352898331250199</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.01304258963201877</v>
+      </c>
+      <c r="F7">
+        <v>-0.01188130143057559</v>
+      </c>
+      <c r="G7">
+        <v>-0.07611103616467334</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.001258075979778494</v>
+        <v>0.00276763461446145</v>
       </c>
       <c r="C8">
-        <v>-0.01795481255110478</v>
+        <v>0.01464833480625663</v>
       </c>
       <c r="D8">
-        <v>-0.02056340560557759</v>
+        <v>-0.003888506300928385</v>
       </c>
       <c r="E8">
-        <v>-0.01745187741858537</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.0178103327873338</v>
+      </c>
+      <c r="F8">
+        <v>-0.02234104360219289</v>
+      </c>
+      <c r="G8">
+        <v>-0.02674969569385911</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.0151791426760542</v>
+        <v>-0.02898764924415929</v>
       </c>
       <c r="C9">
-        <v>0.02351170079587837</v>
+        <v>0.04283377625055711</v>
       </c>
       <c r="D9">
-        <v>-0.02198139846435599</v>
+        <v>-0.0153503019778648</v>
       </c>
       <c r="E9">
-        <v>-0.01610742629799502</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.004380504626324623</v>
+      </c>
+      <c r="F9">
+        <v>-0.01889609173943039</v>
+      </c>
+      <c r="G9">
+        <v>-0.03231539563605736</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.0109799962844821</v>
+        <v>-0.0855196705072558</v>
       </c>
       <c r="C10">
-        <v>0.08201833690509568</v>
+        <v>-0.1866497080645489</v>
       </c>
       <c r="D10">
-        <v>0.08608524109466827</v>
+        <v>0.01869488010553603</v>
       </c>
       <c r="E10">
-        <v>0.1374146472751</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.02131237388732415</v>
+      </c>
+      <c r="F10">
+        <v>0.01479300918613262</v>
+      </c>
+      <c r="G10">
+        <v>-0.03911388703630855</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.000200617574067071</v>
+        <v>-0.03635531635668399</v>
       </c>
       <c r="C11">
-        <v>0.01776152150032924</v>
+        <v>0.05232473572789909</v>
       </c>
       <c r="D11">
-        <v>-0.01214463912503736</v>
+        <v>-0.001271639782214236</v>
       </c>
       <c r="E11">
-        <v>-0.03176626764650434</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.002201653572750693</v>
+      </c>
+      <c r="F11">
+        <v>-0.02520487813619983</v>
+      </c>
+      <c r="G11">
+        <v>-0.0135481123371833</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.005647657935975208</v>
+        <v>-0.0337848315993896</v>
       </c>
       <c r="C12">
-        <v>0.0277897067410009</v>
+        <v>0.04437700847037018</v>
       </c>
       <c r="D12">
-        <v>-0.01947475565264641</v>
+        <v>-0.005424039220608331</v>
       </c>
       <c r="E12">
-        <v>-0.03102175378457796</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.008857036027135784</v>
+      </c>
+      <c r="F12">
+        <v>-0.007441278833711304</v>
+      </c>
+      <c r="G12">
+        <v>-0.01806746911169352</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.0219117644974883</v>
+        <v>-0.01156066272745136</v>
       </c>
       <c r="C13">
-        <v>0.008798681529187719</v>
+        <v>0.03396562358808582</v>
       </c>
       <c r="D13">
-        <v>-0.002452410403971969</v>
+        <v>-0.02468223551825599</v>
       </c>
       <c r="E13">
-        <v>-0.009382898799963244</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.02266857391203338</v>
+      </c>
+      <c r="F13">
+        <v>-0.02444870417629961</v>
+      </c>
+      <c r="G13">
+        <v>-0.02885993667632092</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.008101300349931326</v>
+        <v>-0.006920017320006819</v>
       </c>
       <c r="C14">
-        <v>0.01209600833685626</v>
+        <v>0.02542672421837687</v>
       </c>
       <c r="D14">
-        <v>-0.016106205016983</v>
+        <v>-0.008590800727650645</v>
       </c>
       <c r="E14">
-        <v>0.00206117477350384</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.004124909023870721</v>
+      </c>
+      <c r="F14">
+        <v>-0.004086353086759683</v>
+      </c>
+      <c r="G14">
+        <v>-0.03746727883919038</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.0006672913946121292</v>
+        <v>-0.03229679190231403</v>
       </c>
       <c r="C16">
-        <v>0.02336452995130402</v>
+        <v>0.0426591877991367</v>
       </c>
       <c r="D16">
-        <v>-0.02091198459784038</v>
+        <v>-0.0009089178474004243</v>
       </c>
       <c r="E16">
-        <v>-0.03330833599416486</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.0002676932924775993</v>
+      </c>
+      <c r="F16">
+        <v>-0.0113600015908401</v>
+      </c>
+      <c r="G16">
+        <v>-0.01705732969670768</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,61 +1108,85 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01363972710376978</v>
+        <v>-0.03079297546135893</v>
       </c>
       <c r="C19">
-        <v>0.01619055093718941</v>
+        <v>0.05497259065134176</v>
       </c>
       <c r="D19">
-        <v>-0.02028930142403065</v>
+        <v>-0.01542035613693849</v>
       </c>
       <c r="E19">
-        <v>-0.02967046748868622</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.04109609837423684</v>
+      </c>
+      <c r="F19">
+        <v>-0.03897099281407886</v>
+      </c>
+      <c r="G19">
+        <v>-0.03631629111248563</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.009345090475970519</v>
+        <v>-0.01093617886820726</v>
       </c>
       <c r="C20">
-        <v>0.001788338324006005</v>
+        <v>0.03505077666163204</v>
       </c>
       <c r="D20">
-        <v>-0.004413368108177235</v>
+        <v>-0.01307974026951654</v>
       </c>
       <c r="E20">
-        <v>0.00163616640579696</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.02070322814054548</v>
+      </c>
+      <c r="F20">
+        <v>-0.007193404357816308</v>
+      </c>
+      <c r="G20">
+        <v>-0.02903403210863056</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01597120118452926</v>
+        <v>-0.01194787848994089</v>
       </c>
       <c r="C21">
-        <v>0.02813374517091568</v>
+        <v>0.0334307997834948</v>
       </c>
       <c r="D21">
-        <v>-0.02254799415517279</v>
+        <v>-0.0160840270207506</v>
       </c>
       <c r="E21">
-        <v>0.003497696962122095</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.02817031981786605</v>
+      </c>
+      <c r="F21">
+        <v>-0.02161500005635813</v>
+      </c>
+      <c r="G21">
+        <v>-0.05107019558532056</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1068,10 +1200,16 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1085,61 +1223,85 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.00422856283070185</v>
+        <v>-0.02726954440910463</v>
       </c>
       <c r="C24">
-        <v>0.02105609152287713</v>
+        <v>0.04570918500520598</v>
       </c>
       <c r="D24">
-        <v>-0.01747057091777873</v>
+        <v>-0.006275117469705099</v>
       </c>
       <c r="E24">
-        <v>-0.02965835872651575</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.005835927095681882</v>
+      </c>
+      <c r="F24">
+        <v>-0.02083961004343333</v>
+      </c>
+      <c r="G24">
+        <v>-0.01664706005121708</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.01164048481701128</v>
+        <v>-0.04482630515426183</v>
       </c>
       <c r="C25">
-        <v>0.0335641667091626</v>
+        <v>0.05212931788459146</v>
       </c>
       <c r="D25">
-        <v>-0.01694587084870389</v>
+        <v>-0.01009215951601541</v>
       </c>
       <c r="E25">
-        <v>-0.03179626283199392</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.01222481713200976</v>
+      </c>
+      <c r="F25">
+        <v>-0.01499760947619807</v>
+      </c>
+      <c r="G25">
+        <v>-0.02322780929897042</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.02390972969369526</v>
+        <v>-0.008300460978203835</v>
       </c>
       <c r="C26">
-        <v>-0.0001708396468961333</v>
+        <v>0.008359939101083817</v>
       </c>
       <c r="D26">
-        <v>-0.005614355497847783</v>
+        <v>-0.02378477444335567</v>
       </c>
       <c r="E26">
-        <v>0.007924199689544298</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.009509875128581929</v>
+      </c>
+      <c r="F26">
+        <v>-0.006483895102397145</v>
+      </c>
+      <c r="G26">
+        <v>-0.02702780348653229</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.02497844598118256</v>
+        <v>-0.1078006779332007</v>
       </c>
       <c r="C28">
-        <v>0.1222889095061069</v>
+        <v>-0.2296363984335963</v>
       </c>
       <c r="D28">
-        <v>0.1283287944713511</v>
+        <v>0.01008813748803359</v>
       </c>
       <c r="E28">
-        <v>0.2060860081034354</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.009328642951484714</v>
+      </c>
+      <c r="F28">
+        <v>0.007159782882693079</v>
+      </c>
+      <c r="G28">
+        <v>-0.05452808241612073</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.008393117994085545</v>
+        <v>-0.01200334466213098</v>
       </c>
       <c r="C29">
-        <v>0.0139380643945132</v>
+        <v>0.01883725634714228</v>
       </c>
       <c r="D29">
-        <v>-0.01196943688317112</v>
+        <v>-0.007317020715459048</v>
       </c>
       <c r="E29">
-        <v>0.001308668939132992</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.001739932653695265</v>
+      </c>
+      <c r="F29">
+        <v>0.004700954008413061</v>
+      </c>
+      <c r="G29">
+        <v>-0.03192309795191285</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.02601817577381648</v>
+        <v>-0.04096639116926479</v>
       </c>
       <c r="C30">
-        <v>0.03199269967552239</v>
+        <v>0.06994371635281714</v>
       </c>
       <c r="D30">
-        <v>0.01273003403294</v>
+        <v>-0.02686385873039436</v>
       </c>
       <c r="E30">
-        <v>-0.08287422909486258</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.02104130491585172</v>
+      </c>
+      <c r="F30">
+        <v>-0.04633375743794993</v>
+      </c>
+      <c r="G30">
+        <v>0.004860974587667533</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.005905005000426556</v>
+        <v>-0.04339571251514813</v>
       </c>
       <c r="C31">
-        <v>0.04615721210309578</v>
+        <v>0.03081821940197757</v>
       </c>
       <c r="D31">
-        <v>-0.02091941624172733</v>
+        <v>-0.00316144673978588</v>
       </c>
       <c r="E31">
-        <v>-0.01153739021550232</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.01092878140432147</v>
+      </c>
+      <c r="F31">
+        <v>0.03555189016233366</v>
+      </c>
+      <c r="G31">
+        <v>-0.02789314385489631</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.006791083694109117</v>
+        <v>-0.003595546870659383</v>
       </c>
       <c r="C32">
-        <v>-0.003700918844092997</v>
+        <v>0.03421579359750116</v>
       </c>
       <c r="D32">
-        <v>-0.03537949893864797</v>
+        <v>0.004613700928191423</v>
       </c>
       <c r="E32">
-        <v>-0.007874426133799624</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.01388821863140743</v>
+      </c>
+      <c r="F32">
+        <v>-0.07751880437698108</v>
+      </c>
+      <c r="G32">
+        <v>-0.05155504764436299</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.01243468022755561</v>
+        <v>-0.0305869652670127</v>
       </c>
       <c r="C33">
-        <v>0.02704375818594972</v>
+        <v>0.04973393357509944</v>
       </c>
       <c r="D33">
-        <v>0.004900754942572463</v>
+        <v>-0.01387252293689444</v>
       </c>
       <c r="E33">
-        <v>-0.03311071899173983</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.01922488970677022</v>
+      </c>
+      <c r="F33">
+        <v>-0.02671321036435328</v>
+      </c>
+      <c r="G33">
+        <v>-0.02314244473474802</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.006693167598705466</v>
+        <v>-0.04666255871409319</v>
       </c>
       <c r="C34">
-        <v>0.02903568627812425</v>
+        <v>0.0533368353144445</v>
       </c>
       <c r="D34">
-        <v>-0.02767990522451876</v>
+        <v>0.005918578139771442</v>
       </c>
       <c r="E34">
-        <v>-0.02904221086785162</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.01172901755098492</v>
+      </c>
+      <c r="F34">
+        <v>-0.02298690112769802</v>
+      </c>
+      <c r="G34">
+        <v>-0.02731982040638069</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01195539304246251</v>
+        <v>-0.01150008929112491</v>
       </c>
       <c r="C36">
-        <v>0.01360853337643696</v>
+        <v>0.00611731252910518</v>
       </c>
       <c r="D36">
-        <v>-0.002303723754536618</v>
+        <v>-0.01105689503068046</v>
       </c>
       <c r="E36">
-        <v>0.003862621159038592</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.0008000526774710243</v>
+      </c>
+      <c r="F36">
+        <v>0.0001292250017037571</v>
+      </c>
+      <c r="G36">
+        <v>-0.01909268532211734</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.007320054197445354</v>
+        <v>-0.03572902003457692</v>
       </c>
       <c r="C38">
-        <v>0.02820835480703609</v>
+        <v>0.02382988819296311</v>
       </c>
       <c r="D38">
-        <v>-0.007452044043420501</v>
+        <v>0.008357896580742903</v>
       </c>
       <c r="E38">
-        <v>-0.01740038228722083</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.003250834816734145</v>
+      </c>
+      <c r="F38">
+        <v>-0.001364899156669889</v>
+      </c>
+      <c r="G38">
+        <v>-0.02885661064595971</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.005231222173616687</v>
+        <v>-0.03302720545618015</v>
       </c>
       <c r="C39">
-        <v>0.01508085859899603</v>
+        <v>0.08233201576007157</v>
       </c>
       <c r="D39">
-        <v>-0.03921612874864047</v>
+        <v>-0.0115943501479214</v>
       </c>
       <c r="E39">
-        <v>-0.05754907409097513</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.01048131811680687</v>
+      </c>
+      <c r="F39">
+        <v>-0.04043135512256203</v>
+      </c>
+      <c r="G39">
+        <v>-0.01834162930221843</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.0125518892216861</v>
+        <v>-0.02027724617994732</v>
       </c>
       <c r="C40">
-        <v>0.02479304080386392</v>
+        <v>0.03062207270734243</v>
       </c>
       <c r="D40">
-        <v>-0.01507429129706633</v>
+        <v>-0.01291736046631143</v>
       </c>
       <c r="E40">
-        <v>-0.03484494693658183</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.01641027418413508</v>
+      </c>
+      <c r="F40">
+        <v>-0.02245577109171984</v>
+      </c>
+      <c r="G40">
+        <v>-0.02003702733250885</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.0045502893101504</v>
+        <v>-0.01236003414497961</v>
       </c>
       <c r="C41">
-        <v>0.01452402029684136</v>
+        <v>-0.002234040710535799</v>
       </c>
       <c r="D41">
-        <v>0.005669745016844999</v>
+        <v>-0.003366143388957662</v>
       </c>
       <c r="E41">
-        <v>0.008673825684615397</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.002941980458470689</v>
+      </c>
+      <c r="F41">
+        <v>-0.001178129887514977</v>
+      </c>
+      <c r="G41">
+        <v>-0.01340253302771397</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.08451441898267611</v>
+        <v>-0.03483904288973222</v>
       </c>
       <c r="C42">
-        <v>0.1230421967037394</v>
+        <v>0.05476650637096137</v>
       </c>
       <c r="D42">
-        <v>0.0460328630282375</v>
+        <v>-0.1020793268515524</v>
       </c>
       <c r="E42">
-        <v>-0.1532129189919822</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>-0.06060296562964522</v>
+      </c>
+      <c r="F42">
+        <v>0.1103448107023102</v>
+      </c>
+      <c r="G42">
+        <v>0.2009137809668478</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.007615970176282497</v>
+        <v>-0.02870086466788701</v>
       </c>
       <c r="C43">
-        <v>0.01181397005307594</v>
+        <v>0.006957755768598597</v>
       </c>
       <c r="D43">
-        <v>0.007728877453975056</v>
+        <v>-0.003472755433491292</v>
       </c>
       <c r="E43">
-        <v>0.009552506257206704</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.0006455727218900866</v>
+      </c>
+      <c r="F43">
+        <v>-0.001172373497154544</v>
+      </c>
+      <c r="G43">
+        <v>-0.0167648208939746</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.004052563843012097</v>
+        <v>-0.01663656340854884</v>
       </c>
       <c r="C44">
-        <v>-0.001338784884667461</v>
+        <v>0.04682657007358155</v>
       </c>
       <c r="D44">
-        <v>-0.01545031151052038</v>
+        <v>-0.006575129874617302</v>
       </c>
       <c r="E44">
-        <v>-0.002394579744321387</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.01934416351285673</v>
+      </c>
+      <c r="F44">
+        <v>-0.02766501310275994</v>
+      </c>
+      <c r="G44">
+        <v>-0.0347868242409738</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.01113454559823173</v>
+        <v>-0.002564004089583896</v>
       </c>
       <c r="C46">
-        <v>0.007381378025598934</v>
+        <v>0.01722667475476959</v>
       </c>
       <c r="D46">
-        <v>-0.01339406122237533</v>
+        <v>-0.01162237526456641</v>
       </c>
       <c r="E46">
-        <v>-0.01675624746515141</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.002675209064117636</v>
+      </c>
+      <c r="F46">
+        <v>0.008081492091301472</v>
+      </c>
+      <c r="G46">
+        <v>-0.02362800569819751</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.0006715088227079603</v>
+        <v>-0.07553597402937233</v>
       </c>
       <c r="C47">
-        <v>0.07222685318396609</v>
+        <v>0.06210872138169449</v>
       </c>
       <c r="D47">
-        <v>-0.01490717695812687</v>
+        <v>0.005273705910378539</v>
       </c>
       <c r="E47">
-        <v>-0.03074943716260893</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.01424872226672792</v>
+      </c>
+      <c r="F47">
+        <v>0.06110450633577811</v>
+      </c>
+      <c r="G47">
+        <v>-0.02244514415529154</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.002398911542350591</v>
+        <v>-0.01933776725021267</v>
       </c>
       <c r="C48">
-        <v>0.02540384056991258</v>
+        <v>0.01010682868990653</v>
       </c>
       <c r="D48">
-        <v>-0.004341746626939891</v>
+        <v>-0.0008989785780102067</v>
       </c>
       <c r="E48">
-        <v>-7.25944332080537e-05</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.002479558507140307</v>
+      </c>
+      <c r="F48">
+        <v>0.01359021783716618</v>
+      </c>
+      <c r="G48">
+        <v>-0.02564937171681535</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.002707941251504416</v>
+        <v>-0.08069891456804019</v>
       </c>
       <c r="C50">
-        <v>0.06443194922948514</v>
+        <v>0.06379784767237012</v>
       </c>
       <c r="D50">
-        <v>-0.03957282682278244</v>
+        <v>0.004153511701031481</v>
       </c>
       <c r="E50">
-        <v>-0.01988385472689079</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.01351031341262819</v>
+      </c>
+      <c r="F50">
+        <v>0.05588506291643598</v>
+      </c>
+      <c r="G50">
+        <v>-0.04372651538735332</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.007281210999574021</v>
+        <v>-0.01316476080630647</v>
       </c>
       <c r="C51">
-        <v>-0.002169190429832965</v>
+        <v>0.02634174330786564</v>
       </c>
       <c r="D51">
-        <v>-0.002181123700223938</v>
+        <v>-0.008702668734337759</v>
       </c>
       <c r="E51">
-        <v>0.02650792422972012</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.005687619451812742</v>
+      </c>
+      <c r="F51">
+        <v>-0.0326784017440048</v>
+      </c>
+      <c r="G51">
+        <v>-0.04664603646628214</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.002450797684514433</v>
+        <v>-0.09747286617295779</v>
       </c>
       <c r="C53">
-        <v>0.1024402261192647</v>
+        <v>0.0742739438646241</v>
       </c>
       <c r="D53">
-        <v>-0.04756128525609168</v>
+        <v>0.006104263866967299</v>
       </c>
       <c r="E53">
-        <v>-0.06204325761475989</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.04036461431885571</v>
+      </c>
+      <c r="F53">
+        <v>0.06501614072365274</v>
+      </c>
+      <c r="G53">
+        <v>-0.0248133051262458</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.001457725030455615</v>
+        <v>-0.02920436123639793</v>
       </c>
       <c r="C54">
-        <v>0.02292940493729526</v>
+        <v>0.003739737070796183</v>
       </c>
       <c r="D54">
-        <v>-0.001158491505806402</v>
+        <v>0.004209568527634962</v>
       </c>
       <c r="E54">
-        <v>0.01352776315869378</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.003503772090198501</v>
+      </c>
+      <c r="F54">
+        <v>0.001438983095389767</v>
+      </c>
+      <c r="G54">
+        <v>-0.03039563027674762</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.001617604160859464</v>
+        <v>-0.0743588622474957</v>
       </c>
       <c r="C55">
-        <v>0.07913247160891715</v>
+        <v>0.07017041755582251</v>
       </c>
       <c r="D55">
-        <v>-0.03863066669976272</v>
+        <v>0.00494455890283486</v>
       </c>
       <c r="E55">
-        <v>-0.06863413606707609</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.02729425758360384</v>
+      </c>
+      <c r="F55">
+        <v>0.06173579481391977</v>
+      </c>
+      <c r="G55">
+        <v>-0.01192186466072063</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-2.912688504581808e-05</v>
+        <v>-0.1498216047666001</v>
       </c>
       <c r="C56">
-        <v>0.1492867635680945</v>
+        <v>0.09610381677570973</v>
       </c>
       <c r="D56">
-        <v>-0.04727313972604838</v>
+        <v>0.01489183876465712</v>
       </c>
       <c r="E56">
-        <v>-0.08650356470669401</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.04358053666386084</v>
+      </c>
+      <c r="F56">
+        <v>0.1032610849471202</v>
+      </c>
+      <c r="G56">
+        <v>-0.003576912688990389</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.02339187625685157</v>
+        <v>-0.01264765768177337</v>
       </c>
       <c r="C57">
-        <v>0.03482163432159843</v>
+        <v>0.01155781926724244</v>
       </c>
       <c r="D57">
-        <v>-0.006231133282118665</v>
+        <v>-0.02374793378874581</v>
       </c>
       <c r="E57">
-        <v>-0.02211302847033831</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>-0.02862450055865598</v>
+      </c>
+      <c r="F57">
+        <v>-0.01587797172165371</v>
+      </c>
+      <c r="G57">
+        <v>-0.02237100083721955</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.005655275901885111</v>
+        <v>-0.07085544970895495</v>
       </c>
       <c r="C58">
-        <v>0.09968373855845922</v>
+        <v>0.07217700098839411</v>
       </c>
       <c r="D58">
-        <v>0.09981178378244859</v>
+        <v>-0.02086640278796438</v>
       </c>
       <c r="E58">
-        <v>-0.0991722760372163</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.9435293268102423</v>
+      </c>
+      <c r="F58">
+        <v>0.2298266733379863</v>
+      </c>
+      <c r="G58">
+        <v>-0.06119962496731147</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.02613354666191287</v>
+        <v>-0.1454667994145747</v>
       </c>
       <c r="C59">
-        <v>0.1234472020214898</v>
+        <v>-0.2184444519769037</v>
       </c>
       <c r="D59">
-        <v>0.1428203667333035</v>
+        <v>0.0170391448025989</v>
       </c>
       <c r="E59">
-        <v>0.174250269497965</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.01590085335206331</v>
+      </c>
+      <c r="F59">
+        <v>-0.009692791267305954</v>
+      </c>
+      <c r="G59">
+        <v>-0.01768514361623517</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.02952538397516715</v>
+        <v>-0.2965223834482891</v>
       </c>
       <c r="C60">
-        <v>0.1944971290049736</v>
+        <v>0.07542621172191952</v>
       </c>
       <c r="D60">
-        <v>0.04489530776199455</v>
+        <v>-0.007427507221110976</v>
       </c>
       <c r="E60">
-        <v>-0.03669706131984786</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.02479977913421199</v>
+      </c>
+      <c r="F60">
+        <v>-0.3824012013821618</v>
+      </c>
+      <c r="G60">
+        <v>0.07634444415228137</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.002435420548413709</v>
+        <v>-0.03410906410146724</v>
       </c>
       <c r="C61">
-        <v>0.02812906253058202</v>
+        <v>0.06237624823199245</v>
       </c>
       <c r="D61">
-        <v>-0.02663795190412624</v>
+        <v>-0.004892329118703337</v>
       </c>
       <c r="E61">
-        <v>-0.048192707790353</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.006560749201592309</v>
+      </c>
+      <c r="F61">
+        <v>-0.02563216632027503</v>
+      </c>
+      <c r="G61">
+        <v>-0.01961198842092687</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.00837089373375283</v>
+        <v>-0.01599142926862624</v>
       </c>
       <c r="C63">
-        <v>0.01393420624346231</v>
+        <v>0.02556794956736614</v>
       </c>
       <c r="D63">
-        <v>-0.01311040700040843</v>
+        <v>-0.007608442941510692</v>
       </c>
       <c r="E63">
-        <v>-0.01145635654347128</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.01203570808269919</v>
+      </c>
+      <c r="F63">
+        <v>0.0106526416102106</v>
+      </c>
+      <c r="G63">
+        <v>-0.02922915081016998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.004987338244489803</v>
+        <v>-0.04786319927309113</v>
       </c>
       <c r="C64">
-        <v>0.04380205287982909</v>
+        <v>0.03458525557965113</v>
       </c>
       <c r="D64">
-        <v>-0.02006623210475027</v>
+        <v>-0.004494067274353196</v>
       </c>
       <c r="E64">
-        <v>-0.03739511941067328</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.009159859800250313</v>
+      </c>
+      <c r="F64">
+        <v>-0.01412074940437411</v>
+      </c>
+      <c r="G64">
+        <v>-0.01774672296414062</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.01776634054615544</v>
+        <v>-0.08129714392723657</v>
       </c>
       <c r="C65">
-        <v>0.06337615184599039</v>
+        <v>0.06566007059790833</v>
       </c>
       <c r="D65">
-        <v>-0.03881099442328236</v>
+        <v>-0.01519341685367374</v>
       </c>
       <c r="E65">
-        <v>-0.05740854949093463</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.00482637321128335</v>
+      </c>
+      <c r="F65">
+        <v>-0.04157986785266359</v>
+      </c>
+      <c r="G65">
+        <v>-0.01090666207665069</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.00681299892262099</v>
+        <v>-0.05502073688017753</v>
       </c>
       <c r="C66">
-        <v>0.03557593611076706</v>
+        <v>0.1140530267058671</v>
       </c>
       <c r="D66">
-        <v>-0.03390852498246743</v>
+        <v>-0.01080299128757892</v>
       </c>
       <c r="E66">
-        <v>-0.08515356911582125</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.01289793679902096</v>
+      </c>
+      <c r="F66">
+        <v>-0.04886745306295538</v>
+      </c>
+      <c r="G66">
+        <v>-0.009036020904162605</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.001874929405610913</v>
+        <v>-0.05999597095788883</v>
       </c>
       <c r="C67">
-        <v>0.04397757741212154</v>
+        <v>0.02666432651346868</v>
       </c>
       <c r="D67">
-        <v>-0.004076548950829179</v>
+        <v>0.006968148166050239</v>
       </c>
       <c r="E67">
-        <v>-0.01735037791898771</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.003764115824238265</v>
+      </c>
+      <c r="F67">
+        <v>-0.0001052684807030678</v>
+      </c>
+      <c r="G67">
+        <v>-0.02900998942808141</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.04224792714713581</v>
+        <v>-0.1249175804595039</v>
       </c>
       <c r="C68">
-        <v>0.1087915490542994</v>
+        <v>-0.2734476133938916</v>
       </c>
       <c r="D68">
-        <v>0.1387451292454002</v>
+        <v>-0.00139736769912647</v>
       </c>
       <c r="E68">
-        <v>0.1868967037967381</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.0200000207358095</v>
+      </c>
+      <c r="F68">
+        <v>0.01326410474117105</v>
+      </c>
+      <c r="G68">
+        <v>-0.02067033859634245</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.002989765845451613</v>
+        <v>-0.0785573854075184</v>
       </c>
       <c r="C69">
-        <v>0.05821962972020266</v>
+        <v>0.06125455827769507</v>
       </c>
       <c r="D69">
-        <v>-0.01686882001151358</v>
+        <v>0.00945451466824208</v>
       </c>
       <c r="E69">
-        <v>-0.03042069609871614</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.02985067340479439</v>
+      </c>
+      <c r="F69">
+        <v>0.04057700747929006</v>
+      </c>
+      <c r="G69">
+        <v>-0.01968520232944544</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.02942370943656625</v>
+        <v>-0.1234384994052884</v>
       </c>
       <c r="C71">
-        <v>0.1022194409724365</v>
+        <v>-0.230904486883608</v>
       </c>
       <c r="D71">
-        <v>0.1156900204961271</v>
+        <v>0.007497421662534953</v>
       </c>
       <c r="E71">
-        <v>0.1781452076718679</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.02640278610840828</v>
+      </c>
+      <c r="F71">
+        <v>0.01795847845771291</v>
+      </c>
+      <c r="G71">
+        <v>-0.03760382652579046</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.005944772181845055</v>
+        <v>-0.0865567309831273</v>
       </c>
       <c r="C72">
-        <v>0.1189086393276615</v>
+        <v>0.07632422770782291</v>
       </c>
       <c r="D72">
-        <v>-0.03981296481746439</v>
+        <v>0.008884377691979122</v>
       </c>
       <c r="E72">
-        <v>-0.1116170028642792</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.01099170687565721</v>
+      </c>
+      <c r="F72">
+        <v>-0.03946329027208364</v>
+      </c>
+      <c r="G72">
+        <v>0.002849136261563516</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.03414058907578409</v>
+        <v>-0.4048365757997479</v>
       </c>
       <c r="C73">
-        <v>0.2437608298679529</v>
+        <v>0.09230043371562319</v>
       </c>
       <c r="D73">
-        <v>0.06391955110103936</v>
+        <v>-0.01174685723616781</v>
       </c>
       <c r="E73">
-        <v>-0.1193937262500053</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.06663266869605908</v>
+      </c>
+      <c r="F73">
+        <v>-0.5333457499666846</v>
+      </c>
+      <c r="G73">
+        <v>0.1381139744613903</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.001347398494817351</v>
+        <v>-0.1199574437324788</v>
       </c>
       <c r="C74">
-        <v>0.1383419785077792</v>
+        <v>0.1127963413797237</v>
       </c>
       <c r="D74">
-        <v>-0.03732383842614356</v>
+        <v>0.01100359658824728</v>
       </c>
       <c r="E74">
-        <v>-0.08946703782635709</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.03639496755381644</v>
+      </c>
+      <c r="F74">
+        <v>0.07062312598028507</v>
+      </c>
+      <c r="G74">
+        <v>-0.02159704966154705</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.002768140464519308</v>
+        <v>-0.2660469192790071</v>
       </c>
       <c r="C75">
-        <v>0.281100272747609</v>
+        <v>0.1390677203261863</v>
       </c>
       <c r="D75">
-        <v>-0.06086234606754176</v>
+        <v>0.03239942599908403</v>
       </c>
       <c r="E75">
-        <v>-0.1577449022844842</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.07622755522587379</v>
+      </c>
+      <c r="F75">
+        <v>0.2158257559242301</v>
+      </c>
+      <c r="G75">
+        <v>0.02310123092038903</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.006909129745732391</v>
+        <v>-0.1413410400942827</v>
       </c>
       <c r="C76">
-        <v>0.2410799514555038</v>
+        <v>0.1180614402512694</v>
       </c>
       <c r="D76">
-        <v>-0.07896458039932518</v>
+        <v>0.02250864884657195</v>
       </c>
       <c r="E76">
-        <v>-0.1416068549718134</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.07020231806275462</v>
+      </c>
+      <c r="F76">
+        <v>0.1358535137714966</v>
+      </c>
+      <c r="G76">
+        <v>-0.009364359846533169</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.01354106647055057</v>
+        <v>-0.06268943673686575</v>
       </c>
       <c r="C77">
-        <v>0.03699723676760514</v>
+        <v>0.05970132308323377</v>
       </c>
       <c r="D77">
-        <v>-0.03039069528998496</v>
+        <v>-0.01196031882375355</v>
       </c>
       <c r="E77">
-        <v>-0.05016563435358053</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.04123707618767469</v>
+      </c>
+      <c r="F77">
+        <v>-0.02112730291655518</v>
+      </c>
+      <c r="G77">
+        <v>-0.04473864741224892</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.006458194362268103</v>
+        <v>-0.04084637114918258</v>
       </c>
       <c r="C78">
-        <v>0.02869832464210125</v>
+        <v>0.05027208614673176</v>
       </c>
       <c r="D78">
-        <v>-0.02716448502585146</v>
+        <v>-0.00534387590963459</v>
       </c>
       <c r="E78">
-        <v>-0.03894193213521812</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.01782123178728803</v>
+      </c>
+      <c r="F78">
+        <v>-0.04313100083790823</v>
+      </c>
+      <c r="G78">
+        <v>-0.03164315046010158</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.01595425250218586</v>
+        <v>-0.06015113239053328</v>
       </c>
       <c r="C80">
-        <v>0.2093702093265405</v>
+        <v>0.07088555085197594</v>
       </c>
       <c r="D80">
-        <v>-0.7984735572289614</v>
+        <v>-0.01372369220106114</v>
       </c>
       <c r="E80">
-        <v>0.5143238322725364</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.07126092293930365</v>
+      </c>
+      <c r="F80">
+        <v>-0.05281639173466031</v>
+      </c>
+      <c r="G80">
+        <v>-0.9156850204022645</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.0005120783124137103</v>
+        <v>-0.1496342627226963</v>
       </c>
       <c r="C81">
-        <v>0.1921412300895431</v>
+        <v>0.09094837577105935</v>
       </c>
       <c r="D81">
-        <v>-0.04958821455305066</v>
+        <v>0.01685701842592857</v>
       </c>
       <c r="E81">
-        <v>-0.09865422113230274</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.04740612980404242</v>
+      </c>
+      <c r="F81">
+        <v>0.138316819048581</v>
+      </c>
+      <c r="G81">
+        <v>-0.01356160266981475</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.04964035469232766</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.03286286489632058</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.002721901012350187</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.01727206935219513</v>
+      </c>
+      <c r="F82">
+        <v>0.001529824385493871</v>
+      </c>
+      <c r="G82">
+        <v>0.006611281835613488</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.005540345622699867</v>
+        <v>-0.0287946126434526</v>
       </c>
       <c r="C83">
-        <v>0.03025975732512143</v>
+        <v>0.01910629830091438</v>
       </c>
       <c r="D83">
-        <v>-0.001263008747978971</v>
+        <v>-0.005190437988426369</v>
       </c>
       <c r="E83">
-        <v>-0.0101957114149567</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.02649489001648042</v>
+      </c>
+      <c r="F83">
+        <v>-0.024461377264491</v>
+      </c>
+      <c r="G83">
+        <v>-0.02723754982702879</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.007043721280700454</v>
+        <v>-0.242858394161203</v>
       </c>
       <c r="C85">
-        <v>0.2452836948679899</v>
+        <v>0.143708421504269</v>
       </c>
       <c r="D85">
-        <v>-0.06483633261418449</v>
+        <v>0.02109291594376237</v>
       </c>
       <c r="E85">
-        <v>-0.1792681309359672</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.119280897215428</v>
+      </c>
+      <c r="F85">
+        <v>0.2036638591470771</v>
+      </c>
+      <c r="G85">
+        <v>0.04587819327681081</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.009359921942881395</v>
+        <v>-0.00988009721376611</v>
       </c>
       <c r="C86">
-        <v>-0.00109351283405274</v>
+        <v>0.02415769789300845</v>
       </c>
       <c r="D86">
-        <v>-0.01019124066435763</v>
+        <v>-0.009739632025400846</v>
       </c>
       <c r="E86">
-        <v>-0.008295235155028301</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.02390762428430164</v>
+      </c>
+      <c r="F86">
+        <v>-0.02123826350864791</v>
+      </c>
+      <c r="G86">
+        <v>-0.05502476143459434</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.007382590640113314</v>
+        <v>-0.01641729512752617</v>
       </c>
       <c r="C87">
-        <v>0.017042054897273</v>
+        <v>0.02705238094850394</v>
       </c>
       <c r="D87">
-        <v>-0.01525347270004729</v>
+        <v>-0.01139840763473465</v>
       </c>
       <c r="E87">
-        <v>-0.02067002753320301</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.07851760883306512</v>
+      </c>
+      <c r="F87">
+        <v>-0.06053499673424177</v>
+      </c>
+      <c r="G87">
+        <v>-0.03920425168916337</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.01161240718240161</v>
+        <v>-0.09185965990336177</v>
       </c>
       <c r="C88">
-        <v>0.05129858564519615</v>
+        <v>0.05275244677271308</v>
       </c>
       <c r="D88">
-        <v>0.006035989126872069</v>
+        <v>-0.02082204942148818</v>
       </c>
       <c r="E88">
-        <v>-0.001608041354875713</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.005322802385198297</v>
+      </c>
+      <c r="F88">
+        <v>0.002506165421403369</v>
+      </c>
+      <c r="G88">
+        <v>-0.02482201977728092</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.05940544041749091</v>
+        <v>-0.2104752417050021</v>
       </c>
       <c r="C89">
-        <v>0.20835936180617</v>
+        <v>-0.37505982271074</v>
       </c>
       <c r="D89">
-        <v>0.2488741941675948</v>
+        <v>0.009135004223616077</v>
       </c>
       <c r="E89">
-        <v>0.3019951379545857</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.01147726006054164</v>
+      </c>
+      <c r="F89">
+        <v>0.03310126878114433</v>
+      </c>
+      <c r="G89">
+        <v>-0.02955820550866937</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.04131940944687618</v>
+        <v>-0.1760098387691412</v>
       </c>
       <c r="C90">
-        <v>0.1271078247614233</v>
+        <v>-0.3403324368545926</v>
       </c>
       <c r="D90">
-        <v>0.2034213139979324</v>
+        <v>0.0119357849473041</v>
       </c>
       <c r="E90">
-        <v>0.2439180437934702</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.005102930834937189</v>
+      </c>
+      <c r="F90">
+        <v>0.04671739681168219</v>
+      </c>
+      <c r="G90">
+        <v>-0.005123886770002193</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.001054126435358008</v>
+        <v>-0.2145612812811591</v>
       </c>
       <c r="C91">
-        <v>0.269664069535573</v>
+        <v>0.1304148858159087</v>
       </c>
       <c r="D91">
-        <v>-0.06850555648706472</v>
+        <v>0.02564028744923392</v>
       </c>
       <c r="E91">
-        <v>-0.1810022237384099</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.08667335350966626</v>
+      </c>
+      <c r="F91">
+        <v>0.1906780457067481</v>
+      </c>
+      <c r="G91">
+        <v>0.006637995705028678</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.007127585649619054</v>
+        <v>-0.2018379461302837</v>
       </c>
       <c r="C92">
-        <v>0.2804276657727906</v>
+        <v>-0.2759950722940581</v>
       </c>
       <c r="D92">
-        <v>0.1921201746428221</v>
+        <v>0.05481332909502645</v>
       </c>
       <c r="E92">
-        <v>0.2246596200141461</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.005379097330364844</v>
+      </c>
+      <c r="F92">
+        <v>0.1336943323342637</v>
+      </c>
+      <c r="G92">
+        <v>-0.06660828913389893</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.04176319141171973</v>
+        <v>-0.2014403234675729</v>
       </c>
       <c r="C93">
-        <v>0.1963656621635713</v>
+        <v>-0.3365605457203502</v>
       </c>
       <c r="D93">
-        <v>0.2514175958913724</v>
+        <v>0.01891208045108917</v>
       </c>
       <c r="E93">
-        <v>0.2738856711296751</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.01057918246412316</v>
+      </c>
+      <c r="F93">
+        <v>0.01996329540961363</v>
+      </c>
+      <c r="G93">
+        <v>-0.0007835319743461455</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.01852547535554915</v>
+        <v>-0.2835084953427753</v>
       </c>
       <c r="C94">
-        <v>0.3030470184820223</v>
+        <v>0.1483994152909412</v>
       </c>
       <c r="D94">
-        <v>-0.0223012723657207</v>
+        <v>0.01434771146513441</v>
       </c>
       <c r="E94">
-        <v>-0.1726747325839876</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.1030410979640081</v>
+      </c>
+      <c r="F94">
+        <v>0.3968524205180392</v>
+      </c>
+      <c r="G94">
+        <v>0.1186282790435015</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.008878372622475567</v>
+        <v>-0.08563829752503885</v>
       </c>
       <c r="C95">
-        <v>0.08316388236551329</v>
+        <v>0.07248245475268858</v>
       </c>
       <c r="D95">
-        <v>0.06467681039263669</v>
+        <v>0.008043031015249622</v>
       </c>
       <c r="E95">
-        <v>-0.05994040011941316</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.08077851280348279</v>
+      </c>
+      <c r="F95">
+        <v>-0.1542956509702184</v>
+      </c>
+      <c r="G95">
+        <v>0.0704970343227868</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.0001406055786514573</v>
+        <v>-0.2131452279759386</v>
       </c>
       <c r="C98">
-        <v>0.1994051466306687</v>
+        <v>0.04113845268634374</v>
       </c>
       <c r="D98">
-        <v>0.0462680757892267</v>
+        <v>0.0176065158619633</v>
       </c>
       <c r="E98">
-        <v>-0.05210503655327708</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.0669203069879389</v>
+      </c>
+      <c r="F98">
+        <v>-0.2402885109254241</v>
+      </c>
+      <c r="G98">
+        <v>0.04122503725765234</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.009687258690469696</v>
+        <v>-0.01331145239905429</v>
       </c>
       <c r="C101">
-        <v>0.02334067552528042</v>
+        <v>0.01983218627298037</v>
       </c>
       <c r="D101">
-        <v>-0.004395987238347158</v>
+        <v>-0.008532768036619358</v>
       </c>
       <c r="E101">
-        <v>-0.005116243180082625</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.0363183921456204</v>
+      </c>
+      <c r="F101">
+        <v>0.02370835976764646</v>
+      </c>
+      <c r="G101">
+        <v>-0.03973747801531528</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.01329512662751188</v>
+        <v>-0.1282084671462169</v>
       </c>
       <c r="C102">
-        <v>0.1443616362684486</v>
+        <v>0.07855004502221201</v>
       </c>
       <c r="D102">
-        <v>-0.03034862193364549</v>
+        <v>0.0008800097390032148</v>
       </c>
       <c r="E102">
-        <v>-0.08572041975764103</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.04406798396968888</v>
+      </c>
+      <c r="F102">
+        <v>0.06462039222100301</v>
+      </c>
+      <c r="G102">
+        <v>0.01227878432536228</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>0.002296398194983208</v>
+        <v>-0.005662187777318848</v>
       </c>
       <c r="C103">
-        <v>0.02943442355812677</v>
+        <v>0.005461427514171566</v>
       </c>
       <c r="D103">
-        <v>-0.02046053663616268</v>
+        <v>-0.0003697169821854277</v>
       </c>
       <c r="E103">
-        <v>-0.01374456753063184</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>0.001539632832440751</v>
+      </c>
+      <c r="F103">
+        <v>0.008894598880336483</v>
+      </c>
+      <c r="G103">
+        <v>-0.0143695020797916</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.9856465492074545</v>
+        <v>-0.03926110567185562</v>
       </c>
       <c r="C104">
-        <v>-0.08791011750470512</v>
+        <v>-0.04633609664942621</v>
       </c>
       <c r="D104">
-        <v>-0.04104452448449769</v>
+        <v>-0.9859763799029803</v>
       </c>
       <c r="E104">
-        <v>-0.04391194916475783</v>
+        <v>0.04499626944229788</v>
+      </c>
+      <c r="F104">
+        <v>0.0388740856404801</v>
+      </c>
+      <c r="G104">
+        <v>0.002230458069529366</v>
       </c>
     </row>
   </sheetData>
